--- a/ディレクトリマップ_進捗表.xlsx
+++ b/ディレクトリマップ_進捗表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1992" windowHeight="12336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1992" windowHeight="12336" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ディレクトリマップ" sheetId="1" r:id="rId1"/>
@@ -330,7 +330,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,6 +379,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="31">
     <border>
@@ -770,7 +782,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -965,6 +977,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1267,7 +1288,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18"/>
   <cols>
@@ -1387,7 +1410,7 @@
       <c r="A4" s="19">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="30"/>
@@ -1401,14 +1424,14 @@
         <v>20</v>
       </c>
       <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
       <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
       <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
       <c r="P4" s="29"/>
       <c r="T4" s="36" t="s">
         <v>21</v>
@@ -1444,7 +1467,7 @@
       <c r="A6" s="19">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="20"/>
@@ -1458,14 +1481,14 @@
         <v>27</v>
       </c>
       <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
       <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
       <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
       <c r="P6" s="29"/>
       <c r="T6" s="36" t="s">
         <v>28</v>
@@ -1475,7 +1498,7 @@
       <c r="A7" s="19">
         <v>3</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="20"/>
@@ -1487,21 +1510,21 @@
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="55"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
       <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
       <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
       <c r="P7" s="29"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="56">
         <v>4</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="57"/>
@@ -1515,21 +1538,21 @@
         <v>33</v>
       </c>
       <c r="G8" s="55"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
       <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
       <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
       <c r="P8" s="29"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="58">
         <v>5</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="30"/>
@@ -1543,14 +1566,14 @@
         <v>36</v>
       </c>
       <c r="G9" s="55"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
       <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
       <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
       <c r="P9" s="29"/>
     </row>
     <row r="10" spans="1:21">
@@ -1577,7 +1600,7 @@
       <c r="A11" s="59">
         <v>6</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="30"/>
@@ -1593,14 +1616,14 @@
       <c r="G11" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
       <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
       <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
       <c r="P11" s="29"/>
     </row>
     <row r="12" spans="1:21">
@@ -1627,7 +1650,7 @@
       <c r="A13" s="19">
         <v>7</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="20"/>
@@ -1641,21 +1664,21 @@
         <v>45</v>
       </c>
       <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
       <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
       <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
       <c r="P13" s="29"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="19">
         <v>8</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="20"/>
@@ -1669,21 +1692,21 @@
         <v>48</v>
       </c>
       <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
       <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
       <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
       <c r="P14" s="29"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="19">
         <v>9</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="30"/>
@@ -1697,14 +1720,14 @@
         <v>51</v>
       </c>
       <c r="G15" s="55"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
       <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
       <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
       <c r="P15" s="29"/>
     </row>
     <row r="16" spans="1:21">
@@ -1731,7 +1754,7 @@
       <c r="A17" s="19">
         <v>10</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="20"/>
@@ -1745,21 +1768,21 @@
         <v>55</v>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
       <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
       <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
       <c r="P17" s="29"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="19">
         <v>11</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="20"/>
@@ -1773,21 +1796,21 @@
         <v>55</v>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
       <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
       <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
       <c r="P18" s="29"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="19">
         <v>12</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="20"/>
@@ -1801,21 +1824,21 @@
         <v>60</v>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
       <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
       <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
       <c r="P19" s="29"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="19">
         <v>13</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="30"/>
@@ -1829,14 +1852,14 @@
         <v>60</v>
       </c>
       <c r="G20" s="55"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
       <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
       <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
       <c r="P20" s="29"/>
     </row>
     <row r="21" spans="1:16">
@@ -1869,14 +1892,14 @@
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
       <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
       <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
       <c r="P22" s="29"/>
     </row>
     <row r="23" spans="1:16">
@@ -1915,7 +1938,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18"/>
   <cols>
@@ -1994,7 +2019,7 @@
       <c r="A5" s="19">
         <v>1</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="20"/>
@@ -2014,7 +2039,7 @@
       <c r="A6" s="19">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="20"/>
@@ -2034,7 +2059,7 @@
       <c r="A7" s="19">
         <v>3</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="20"/>
@@ -2051,7 +2076,7 @@
       <c r="A8" s="19">
         <v>4</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="20"/>
@@ -2066,7 +2091,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="25"/>
       <c r="D9" s="26" t="s">
         <v>75</v>
@@ -2079,7 +2104,7 @@
       <c r="A10" s="19">
         <v>5</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="20"/>
@@ -2096,7 +2121,7 @@
       <c r="A11" s="19">
         <v>6</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="20"/>
@@ -2113,7 +2138,7 @@
       <c r="A12" s="19">
         <v>7</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="20"/>
@@ -2128,7 +2153,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="25"/>
       <c r="D13" s="26" t="s">
         <v>81</v>
@@ -2141,7 +2166,7 @@
       <c r="A14" s="19">
         <v>8</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="20"/>
@@ -2158,7 +2183,7 @@
       <c r="A15" s="19">
         <v>9</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="20"/>
@@ -2175,7 +2200,7 @@
       <c r="A16" s="19">
         <v>10</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="20"/>
@@ -2192,7 +2217,7 @@
       <c r="A17" s="19">
         <v>11</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="20"/>
@@ -2207,7 +2232,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="25"/>
       <c r="D18" s="26" t="s">
         <v>52</v>
@@ -2221,7 +2246,7 @@
       <c r="A19" s="19">
         <v>12</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="20"/>
@@ -2238,7 +2263,7 @@
       <c r="A20" s="19">
         <v>13</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="30"/>

--- a/ディレクトリマップ_進捗表.xlsx
+++ b/ディレクトリマップ_進捗表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1992" windowHeight="12336" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1992" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="ディレクトリマップ" sheetId="1" r:id="rId1"/>
@@ -1288,9 +1288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18"/>
   <cols>
@@ -1468,7 +1466,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="23" t="s">
@@ -1938,8 +1936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18"/>
@@ -2060,7 +2058,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>

--- a/ディレクトリマップ_進捗表.xlsx
+++ b/ディレクトリマップ_進捗表.xlsx
@@ -991,7 +991,183 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1293,7 +1469,7 @@
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="5.5546875" style="37" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" style="37" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="37" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="76.77734375" style="1" customWidth="1"/>
@@ -1919,6 +2095,25 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="beginsWith" dxfId="14" priority="5" operator="beginsWith" text="着手">
+      <formula>LEFT(B1,2)="着手"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="15" priority="4" operator="beginsWith" text="エラー修正">
+      <formula>LEFT(B1,5)="エラー修正"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="13" priority="3" operator="beginsWith" text="完了">
+      <formula>LEFT(B1,2)="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:I1048576 K1:L1048576 N1:O1048576">
+    <cfRule type="beginsWith" dxfId="9" priority="2" operator="beginsWith" text="〇">
+      <formula>LEFT(H1,1)="〇"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="8" priority="1" operator="beginsWith" text="×">
+      <formula>LEFT(H1,1)="×"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B50">
       <formula1>$T$3:$T$6</formula1>
@@ -1928,7 +2123,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1936,14 +2131,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="5.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.21875" style="1" customWidth="1"/>
     <col min="5" max="5" width="30.33203125" style="1" customWidth="1"/>
@@ -2058,7 +2251,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
@@ -2293,6 +2486,17 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="beginsWith" dxfId="3" priority="3" operator="beginsWith" text="着手">
+      <formula>LEFT(B1,2)="着手"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="4" priority="2" operator="beginsWith" text="エラー修正">
+      <formula>LEFT(B1,5)="エラー修正"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="1" operator="beginsWith" text="完了">
+      <formula>LEFT(B1,2)="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B50">
       <formula1>$N$3:$N$6</formula1>
